--- a/src/testCase/c_useCase_file/Fiberbook/设置变量/一维单元设计参数（截面尺寸）.xlsx
+++ b/src/testCase/c_useCase_file/Fiberbook/设置变量/一维单元设计参数（截面尺寸）.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="控件属性已经操作方法" sheetId="2" r:id="rId1"/>
     <sheet name="测试一" sheetId="4" r:id="rId2"/>
     <sheet name="测试二" sheetId="5" r:id="rId3"/>
+    <sheet name="测试三" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -539,8 +540,211 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例的唯一标识</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+测试用例说明</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于操作菜单栏</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="215">
   <si>
     <t>唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -998,10 +1202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>勾选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选择</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1063,6 +1263,334 @@
   </si>
   <si>
     <t>所操作控件窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》比例系数文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》初始文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》上限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》C0文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》系数文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》加号按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》减号按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》DLINK方程文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》初始文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》上限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》与其他铺层关联复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》CMULT文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》DLINK方程文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》取消按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》取消按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》使用固定数值复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》参考相邻板高度复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》固定值文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》在指定范围内优化复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》由其他参数确定复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》CMULT文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》参数名下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义弹窗-》确认按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》在指定范围优化复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》C0文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》其他铺层框下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》系数文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比定义弹窗-》确认按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维单元设计参数（截面尺寸）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D截面参数定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1131,12 +1659,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1166,7 +1706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1206,6 +1746,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1511,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:BN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1525,115 +2074,205 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:66" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>52</v>
       </c>
+      <c r="AK1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH1" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ1" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM1" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN1" s="15" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1742,13 +2381,103 @@
       <c r="AJ2" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="AK2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ2" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>66</v>
@@ -1778,16 +2507,16 @@
         <v>76</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>77</v>
       </c>
       <c r="N3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>66</v>
@@ -1841,7 +2570,7 @@
         <v>92</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>95</v>
@@ -1852,8 +2581,98 @@
       <c r="AJ3" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="AK3" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP3" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW3" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX3" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA3" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB3" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1960,12 +2779,102 @@
         <v>93</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>93</v>
+        <v>162</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB4" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>65</v>
@@ -2070,10 +2979,100 @@
         <v>65</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>65</v>
+        <v>164</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB5" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2182,8 +3181,98 @@
       <c r="AJ6" s="9">
         <v>0</v>
       </c>
+      <c r="AK6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2197,7 +3286,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>74</v>
@@ -2212,46 +3301,46 @@
         <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="U7" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>75</v>
@@ -2292,8 +3381,98 @@
       <c r="AJ7" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="AK7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2402,8 +3581,98 @@
       <c r="AJ8" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="AK8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2512,8 +3781,98 @@
       <c r="AJ9" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="AK9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2622,12 +3981,102 @@
       <c r="AJ10" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="AK10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2810,7 +4259,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>101</v>
@@ -2834,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
@@ -2889,7 +4338,7 @@
         <v>113</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="9">
         <v>0.3</v>
@@ -2904,7 +4353,7 @@
         <v>0.3</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ2" s="9">
         <v>160000</v>
@@ -2919,10 +4368,10 @@
         <v>4240</v>
       </c>
       <c r="AN2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO2" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="AP2" s="9">
         <v>11</v>
@@ -2931,16 +4380,16 @@
         <v>22</v>
       </c>
       <c r="AR2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU2" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="13.5" x14ac:dyDescent="0.15">
@@ -2995,158 +4444,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>52</v>
+      <c r="M1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="6" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="6" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>99</v>
       </c>
@@ -3154,7 +4552,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>101</v>
@@ -3166,10 +4564,10 @@
         <v>102</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>21</v>
@@ -3178,113 +4576,225 @@
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>105</v>
+        <v>209</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.3</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>105</v>
+        <v>210</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0.3</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>105</v>
+        <v>210</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0.3</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="V2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="X2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="6" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="T2" s="9">
+        <v>3</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="X2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>160000</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>8500</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="AM2" s="9">
-        <v>4240</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP2" s="9">
-        <v>11</v>
-      </c>
-      <c r="AQ2" s="9">
-        <v>22</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
